--- a/02_MasterWifoMannheim/99_Backup/Course92.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course92.xlsx
@@ -1,127 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD32051265F592811593D003573E3FE6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7A1E32-1A02-48AD-A103-5CA61CDC5E10}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 541 Theories and Methods in Information Systems</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course provides students with an introduction to scientific research methods and theories in the field of information systems. strengths and weaknesses of different methods and theoretical perspectives. This overview prepares them for conducting own, bounded research projects (e.g., master theses) as a first step towards a scientific career. This course primarily targets students of the but is also open to students of the M.Sc. MMM and the Master in Bus. Inf. In this course, students come to understand the importance of theory for organizing and cumulating knowledge as well as the importance of rigorous empirical methods to establish the validity of findings. The course covers publications in premier IS journals to exemplify and discuss procedures of qualitative, quantitative, and design-oriented research. The course is taught in a seminar style, requiring students to prepare readings for discussions in class. ttendance in classroom sessions is mandatory. textbook chapters and selected readings on required readings is distributed after registration. contemporary articles published in covered in the course and presented during classroom sessions. Each student finally writes a term paper of four to five pages on an assigned topic.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing the course, students …are able to prepare, plan, and execute own research endeavors (e.g., master thesis), …understand the relevance of methods and theories in meaningful research, …know quality criteria and corresponding means to improve research designs, …have gained an overview of most common methods and theories in IS research.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration: “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10 ECTS in total 6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>30% presentation, 70% written term paper</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Hartmut Höhle</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -136,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,132 +420,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="210.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 541 Theories and Methods in Information Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course provides students with an introduction to scientific research methods and theories in the field of information systems. strengths and weaknesses of different methods and theoretical perspectives. This overview prepares them for conducting own, bounded research projects (e.g., master theses) as a first step towards a scientific career. This course primarily targets students of the but is also open to students of the M.Sc. MMM and the Master in Bus. Inf. In this course, students come to understand the importance of theory for organizing and cumulating knowledge as well as the importance of rigorous empirical methods to establish the validity of findings. The course covers publications in premier IS journals to exemplify and discuss procedures of qualitative, quantitative, and design-oriented research. The course is taught in a seminar style, requiring students to prepare readings for discussions in class. ttendance in classroom sessions is mandatory. textbook chapters and selected readings on required readings is distributed after registration. contemporary articles published in covered in the course and presented during classroom sessions. Each student finally writes a term paper of four to five pages on an assigned topic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing the course, students …are able to prepare, plan, and execute own research endeavors (e.g., master thesis), …understand the relevance of methods and theories in meaningful research, …know quality criteria and corresponding means to improve research designs, …have gained an overview of most common methods and theories in IS research.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration: “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30% presentation, 70% written term paper</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Hartmut Höhle</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
